--- a/Codelist Excel Files and Conversion Templates to XML/uscsGroup.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/uscsGroup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/diggs-dictionaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709284AF-ED75-4B4A-8E05-D2320824BF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850A7EA1-5FA8-A249-B681-AF0DBE2C5AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11960" yWindow="4380" windowWidth="35840" windowHeight="20900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -1345,7 +1345,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1356,6 +1356,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4472C4"/>
         <bgColor rgb="FF4472C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1395,7 +1401,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1424,14 +1430,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1450,32 +1461,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1546,6 +1531,32 @@
         <color auto="1"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1665,30 +1676,30 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="11">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2777,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D63" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D63" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:D63" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
     <sortCondition ref="C1:C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="2">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1976,7 +1987,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2043,8 +2054,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A63" activeCellId="34" sqref="A3:H6 A9:H9 A10:H10 A11:H11 A12:H12 A15 A15:XFD15 A16:XFD16 A17:XFD17 A19:XFD19 A20:XFD20 A21:XFD21 A25:XFD25 A26:XFD26 A30:XFD30 A32:XFD32 A33:XFD33 A34:XFD34 A35:XFD35 A37:XFD37 A38:XFD38 A39:XFD39 A40:XFD40 A46:XFD46 A47:XFD47 A48:XFD48 A49:H49 A51 A51:XFD51 A52:XFD52 A53:XFD53 A54:XFD54 A58:XFD58 A59:XFD59 A63:H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2111,103 +2122,107 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="str">
+      <c r="A3" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B2836,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="E3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="17" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="str">
+      <c r="A4" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B2821,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="E4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="17" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="str">
+      <c r="A5" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B2832,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="15" t="s">
+      <c r="E5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="17" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="str">
+      <c r="A6" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B2811,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="E6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="17" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="str">
+      <c r="A7" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B2778,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2255,98 +2270,102 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="str">
+      <c r="A9" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B2804,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="E9" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="17" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="str">
+      <c r="A10" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B2820,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="E10" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="17" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="str">
+      <c r="A11" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B2803,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="15" t="s">
+      <c r="E11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="17" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="str">
+      <c r="A12" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B2810,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="15" t="s">
+      <c r="E12" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="17" t="s">
         <v>397</v>
       </c>
     </row>
@@ -2398,80 +2417,80 @@
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="str">
+    <row r="15" spans="1:8" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B2817,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="15" t="s">
+      <c r="E15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="17" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="str">
+    <row r="16" spans="1:8" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B2816,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="15" t="s">
+      <c r="E16" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="17" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="str">
+    <row r="17" spans="1:8" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B2824,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="15" t="s">
+      <c r="E17" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="17" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="str">
+      <c r="A18" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B2782,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2494,75 +2513,75 @@
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="str">
+    <row r="19" spans="1:8" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B2815,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="15" t="s">
+      <c r="E19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="17" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="str">
+    <row r="20" spans="1:8" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B2814,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="15" t="s">
+      <c r="E20" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="17" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="str">
+    <row r="21" spans="1:8" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B2823,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="15" t="s">
+      <c r="E21" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="17" t="s">
         <v>397</v>
       </c>
     </row>
@@ -2638,51 +2657,51 @@
         <v>278</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="str">
+    <row r="25" spans="1:8" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B2822,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="18" t="s">
         <v>331</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="15" t="s">
+      <c r="E25" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="17" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="str">
+    <row r="26" spans="1:8" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B2831,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="18" t="s">
         <v>356</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="18" t="s">
         <v>389</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="15" t="s">
+      <c r="E26" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="17" t="s">
         <v>397</v>
       </c>
     </row>
@@ -2735,7 +2754,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="str">
+      <c r="A29" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B2788,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2758,32 +2777,32 @@
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="str">
+    <row r="30" spans="1:8" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B2829,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="E30" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="15" t="s">
+      <c r="E30" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="17" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="str">
+      <c r="A31" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B2789,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2806,104 +2825,104 @@
         <v>278</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="str">
+    <row r="32" spans="1:8" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B2833,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="18" t="s">
         <v>391</v>
       </c>
-      <c r="E32" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="15" t="s">
+      <c r="E32" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="17" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="str">
+    <row r="33" spans="1:8" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B2819,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="E33" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="15" t="s">
+      <c r="E33" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="17" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="str">
+    <row r="34" spans="1:8" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B2837,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="E34" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" s="15" t="s">
+      <c r="E34" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="17" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="str">
+    <row r="35" spans="1:8" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B2813,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="E35" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="15" t="s">
+      <c r="E35" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="17" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="str">
+      <c r="A36" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B2790,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2926,104 +2945,104 @@
         <v>278</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="str">
+    <row r="37" spans="1:8" s="17" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B2805,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="E37" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" s="15" t="s">
+      <c r="E37" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="17" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="16" t="str">
+    <row r="38" spans="1:8" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B2818,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="E38" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" s="15" t="s">
+      <c r="E38" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="17" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="str">
+    <row r="39" spans="1:8" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B2838,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="E39" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G39" s="15" t="s">
+      <c r="E39" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="17" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="16" t="str">
+    <row r="40" spans="1:8" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B40,AssociatedElements!B$2:B2812,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" s="15" t="s">
+      <c r="E40" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="17" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" s="16" t="str">
+      <c r="A41" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B41,AssociatedElements!B$2:B2791,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3119,7 +3138,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="16" t="str">
+      <c r="A45" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B45,AssociatedElements!B$2:B2795,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3142,104 +3161,105 @@
         <v>278</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="str">
+    <row r="46" spans="1:8" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B46,AssociatedElements!B$2:B2807,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="E46" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="15" t="s">
+      <c r="E46" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" s="17" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A47" s="16" t="str">
+    <row r="47" spans="1:8" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B47,AssociatedElements!B$2:B2806,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="E47" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="15" t="s">
+      <c r="E47" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" s="17" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A48" s="16" t="str">
+    <row r="48" spans="1:8" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B48,AssociatedElements!B$2:B2827,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="E48" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="15" t="s">
+      <c r="E48" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" s="17" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A49" s="16" t="str">
+      <c r="A49" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B49,AssociatedElements!B$2:B2834,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="E49" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="15" t="s">
+      <c r="E49" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="17"/>
+      <c r="G49" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H49" s="17" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="16" t="str">
+      <c r="A50" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B50,AssociatedElements!B$2:B2796,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3262,104 +3282,104 @@
         <v>278</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="16" t="str">
+    <row r="51" spans="1:8" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B51,AssociatedElements!B$2:B2826,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="E51" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G51" s="15" t="s">
+      <c r="E51" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" s="17" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A52" s="16" t="str">
+    <row r="52" spans="1:8" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B52,AssociatedElements!B$2:B2809,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="E52" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="15" t="s">
+      <c r="E52" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" s="17" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="16" t="str">
+    <row r="53" spans="1:8" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B53,AssociatedElements!B$2:B2808,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="E53" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G53" s="15" t="s">
+      <c r="E53" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H53" s="17" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="16" t="str">
+    <row r="54" spans="1:8" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B54,AssociatedElements!B$2:B2835,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="E54" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G54" s="15" t="s">
+      <c r="E54" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H54" s="19" t="s">
+      <c r="H54" s="20" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A55" s="16" t="str">
+      <c r="A55" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B55,AssociatedElements!B$2:B2797,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3383,7 +3403,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A56" s="16" t="str">
+      <c r="A56" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B56,AssociatedElements!B$2:B2798,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3407,7 +3427,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A57" s="16" t="str">
+      <c r="A57" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B57,AssociatedElements!B$2:B2799,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3430,56 +3450,56 @@
         <v>278</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A58" s="16" t="str">
+    <row r="58" spans="1:8" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B58,AssociatedElements!B$2:B2825,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="E58" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="15" t="s">
+      <c r="E58" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H58" s="17" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A59" s="16" t="str">
+    <row r="59" spans="1:8" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A59" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B59,AssociatedElements!B$2:B2830,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="E59" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="15" t="s">
+      <c r="E59" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" s="17" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A60" s="16" t="str">
+      <c r="A60" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B60,AssociatedElements!B$2:B2800,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3503,7 +3523,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A61" s="16" t="str">
+      <c r="A61" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B61,AssociatedElements!B$2:B2801,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3527,7 +3547,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A62" s="16" t="str">
+      <c r="A62" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B62,AssociatedElements!B$2:B2802,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -3551,26 +3571,27 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A63" s="16" t="str">
+      <c r="A63" s="17" t="str">
         <f>IF(ISNA(VLOOKUP(B63,AssociatedElements!B$2:B2828,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="E63" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G63" s="15" t="s">
+      <c r="E63" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="17"/>
+      <c r="G63" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H63" s="17" t="s">
         <v>397</v>
       </c>
     </row>
@@ -3611,7 +3632,7 @@
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C50" sqref="C49:C50"/>
     </sheetView>
   </sheetViews>
@@ -3950,11 +3971,11 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="str">
+      <c r="A28" t="str">
         <f>IF(ISNA(VLOOKUP(B28,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>290</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -3962,11 +3983,11 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="str">
+      <c r="A29" t="str">
         <f>IF(ISNA(VLOOKUP(B29,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>291</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -3974,11 +3995,11 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="str">
+      <c r="A30" t="str">
         <f>IF(ISNA(VLOOKUP(B30,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="16" t="s">
         <v>292</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -3986,11 +4007,11 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="str">
+      <c r="A31" t="str">
         <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="16" t="s">
         <v>301</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -3998,11 +4019,11 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="str">
+      <c r="A32" t="str">
         <f>IF(ISNA(VLOOKUP(B32,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="16" t="s">
         <v>302</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -4010,11 +4031,11 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="str">
+      <c r="A33" t="str">
         <f>IF(ISNA(VLOOKUP(B33,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="16" t="s">
         <v>299</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -4022,11 +4043,11 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="str">
+      <c r="A34" t="str">
         <f>IF(ISNA(VLOOKUP(B34,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="16" t="s">
         <v>300</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -4034,11 +4055,11 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="str">
+      <c r="A35" t="str">
         <f>IF(ISNA(VLOOKUP(B35,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="16" t="s">
         <v>303</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -4046,11 +4067,11 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="str">
+      <c r="A36" t="str">
         <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="16" t="s">
         <v>304</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -4058,11 +4079,11 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="17" t="str">
+      <c r="A37" t="str">
         <f>IF(ISNA(VLOOKUP(B37,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="16" t="s">
         <v>305</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -4070,11 +4091,11 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="str">
+      <c r="A38" t="str">
         <f>IF(ISNA(VLOOKUP(B38,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="16" t="s">
         <v>306</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -4082,11 +4103,11 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="17" t="str">
+      <c r="A39" t="str">
         <f>IF(ISNA(VLOOKUP(B39,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="16" t="s">
         <v>315</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -4094,11 +4115,11 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="str">
+      <c r="A40" t="str">
         <f>IF(ISNA(VLOOKUP(B40,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="16" t="s">
         <v>316</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -4106,11 +4127,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="str">
+      <c r="A41" t="str">
         <f>IF(ISNA(VLOOKUP(B41,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="16" t="s">
         <v>317</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -4118,11 +4139,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="str">
+      <c r="A42" t="str">
         <f>IF(ISNA(VLOOKUP(B42,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="16" t="s">
         <v>318</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -4130,11 +4151,11 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="str">
+      <c r="A43" t="str">
         <f>IF(ISNA(VLOOKUP(B43,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="16" t="s">
         <v>319</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -4142,11 +4163,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="17" t="str">
+      <c r="A44" t="str">
         <f>IF(ISNA(VLOOKUP(B44,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="16" t="s">
         <v>320</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -4154,11 +4175,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="str">
+      <c r="A45" t="str">
         <f>IF(ISNA(VLOOKUP(B45,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="16" t="s">
         <v>321</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -4166,11 +4187,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="17" t="str">
+      <c r="A46" t="str">
         <f>IF(ISNA(VLOOKUP(B46,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="16" t="s">
         <v>322</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -4178,11 +4199,11 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="17" t="str">
+      <c r="A47" t="str">
         <f>IF(ISNA(VLOOKUP(B47,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="16" t="s">
         <v>331</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -4190,11 +4211,11 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="17" t="str">
+      <c r="A48" t="str">
         <f>IF(ISNA(VLOOKUP(B48,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="16" t="s">
         <v>333</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -4202,11 +4223,11 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="17" t="str">
+      <c r="A49" t="str">
         <f>IF(ISNA(VLOOKUP(B49,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="16" t="s">
         <v>337</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -4214,11 +4235,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="17" t="str">
+      <c r="A50" t="str">
         <f>IF(ISNA(VLOOKUP(B50,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="16" t="s">
         <v>334</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -4226,11 +4247,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="17" t="str">
+      <c r="A51" t="str">
         <f>IF(ISNA(VLOOKUP(B51,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="16" t="s">
         <v>335</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -4238,11 +4259,11 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="17" t="str">
+      <c r="A52" t="str">
         <f>IF(ISNA(VLOOKUP(B52,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="16" t="s">
         <v>336</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -4250,11 +4271,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="17" t="str">
+      <c r="A53" t="str">
         <f>IF(ISNA(VLOOKUP(B53,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="16" t="s">
         <v>338</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -4262,11 +4283,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="str">
+      <c r="A54" t="str">
         <f>IF(ISNA(VLOOKUP(B54,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="16" t="s">
         <v>339</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -4274,11 +4295,11 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="17" t="str">
+      <c r="A55" t="str">
         <f>IF(ISNA(VLOOKUP(B55,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="16" t="s">
         <v>340</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -4286,11 +4307,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="17" t="str">
+      <c r="A56" t="str">
         <f>IF(ISNA(VLOOKUP(B56,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="16" t="s">
         <v>341</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -4298,11 +4319,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="17" t="str">
+      <c r="A57" t="str">
         <f>IF(ISNA(VLOOKUP(B57,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="16" t="s">
         <v>342</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -4310,11 +4331,11 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="str">
+      <c r="A58" t="str">
         <f>IF(ISNA(VLOOKUP(B58,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="16" t="s">
         <v>343</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -4322,11 +4343,11 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="17" t="str">
+      <c r="A59" t="str">
         <f>IF(ISNA(VLOOKUP(B59,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="16" t="s">
         <v>344</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -4334,11 +4355,11 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="17" t="str">
+      <c r="A60" t="str">
         <f>IF(ISNA(VLOOKUP(B60,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="16" t="s">
         <v>298</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -4346,11 +4367,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="17" t="str">
+      <c r="A61" t="str">
         <f>IF(ISNA(VLOOKUP(B61,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="16" t="s">
         <v>345</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -4358,11 +4379,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="17" t="str">
+      <c r="A62" t="str">
         <f>IF(ISNA(VLOOKUP(B62,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="16" t="s">
         <v>346</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -4370,11 +4391,11 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="17" t="str">
+      <c r="A63" t="str">
         <f>IF(ISNA(VLOOKUP(B63,Definitions!B$2:B$1772,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="16" t="s">
         <v>347</v>
       </c>
       <c r="C63" s="4" t="s">
